--- a/Data/excel/Resultado.xlsx
+++ b/Data/excel/Resultado.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lab5.LABTEC\Downloads\AtividadeMachineLearning-EquacaoReta\Data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2D78E05-720B-4424-8A60-D3FEA319659B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5317B092-D65C-4B8A-9103-E5E3D23E8568}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Resultados obtidos</t>
   </si>
@@ -47,23 +46,18 @@
     <t>Amostra</t>
   </si>
   <si>
-    <t>0.5511807886874754</t>
-  </si>
-  <si>
-    <t>0.5754096949383817</t>
-  </si>
-  <si>
-    <t>0.4203580463500755</t>
-  </si>
-  <si>
-    <t>0.37524248233475127</t>
+    <t>Média</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.000000000000000"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,19 +118,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,82 +477,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C1F0D0-FBAC-4904-97C5-82953E862A47}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="1" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="12.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="20.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="7">
+        <v>0.551180788687475</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8">
+        <f>AVERAGE(C3:D6)</f>
+        <v>0.4805477530776705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="7">
+        <v>0.57540969493838101</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="7">
+        <v>0.42035804635007501</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="7">
+        <v>0.37524248233475099</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="G6" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A3:B3"/>
@@ -554,6 +574,8 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="E3:E6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
